--- a/PV_ICE/baselines/SupportingMaterial/CarbonIntensities/input-silicon-CountryMarketshare-mgSi.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/CarbonIntensities/input-silicon-CountryMarketshare-mgSi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\CarbonIntensities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A03B0A-DE34-46E6-8D47-B5BC18F07E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA022DB-C214-4492-8ED3-D51AC4D8320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6405" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C1BF478-4AB6-4EC1-96E5-CB1E4AD87D8F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5C1BF478-4AB6-4EC1-96E5-CB1E4AD87D8F}"/>
   </bookViews>
   <sheets>
     <sheet name="CountrywiseSiMetalProduction" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
   <si>
     <t>Brazil</t>
   </si>
@@ -500,6 +500,12 @@
   <si>
     <t>Marketshare</t>
   </si>
+  <si>
+    <t>2010-2017 From Smith and Margolis 2019</t>
+  </si>
+  <si>
+    <t>US from EPA 2009</t>
+  </si>
 </sst>
 </file>
 
@@ -508,7 +514,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -700,7 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -708,46 +714,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -758,7 +739,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -767,10 +748,32 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Comma 2" xfId="7" xr:uid="{673CF7A2-3C5A-418C-AFEB-509A3C185E2E}"/>
@@ -799,45 +802,6 @@
     <cellStyle name="Note 2" xfId="5" xr:uid="{035395EE-67D6-4769-BE78-642A50A2782E}"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1163,17 +1127,56 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3984,7 +3987,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -4037,7 +4040,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$27:$P$27</c:f>
+              <c:f>marketshare!$C$27:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4120,7 +4123,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -4173,7 +4176,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$28:$P$28</c:f>
+              <c:f>marketshare!$C$28:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4187,28 +4190,28 @@
                   <c:v>1.2390861420350392</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3300913707889226</c:v>
+                  <c:v>2.1627501964047524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8207055425630649</c:v>
+                  <c:v>1.9644454538180436</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.028023090806387</c:v>
+                  <c:v>2.4248102172685067</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6076871297727915</c:v>
+                  <c:v>1.9559398314743157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2113067561727409</c:v>
+                  <c:v>1.9338424103411804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.938558263293173</c:v>
+                  <c:v>1.3200299458221996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6249930135650692</c:v>
+                  <c:v>1.0177769405556165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7606357866558082</c:v>
+                  <c:v>1.0196732355149469</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.6732291683741747</c:v>
@@ -4256,7 +4259,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -4309,7 +4312,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$29:$P$29</c:f>
+              <c:f>marketshare!$C$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4392,7 +4395,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -4445,7 +4448,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$30:$P$30</c:f>
+              <c:f>marketshare!$C$30:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4528,7 +4531,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -4581,7 +4584,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$31:$P$31</c:f>
+              <c:f>marketshare!$C$31:$Q$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4664,7 +4667,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -4717,7 +4720,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$32:$P$32</c:f>
+              <c:f>marketshare!$C$32:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4802,7 +4805,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -4855,7 +4858,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$33:$P$33</c:f>
+              <c:f>marketshare!$C$33:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4940,7 +4943,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -4993,7 +4996,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$34:$P$34</c:f>
+              <c:f>marketshare!$C$34:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5078,7 +5081,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -5131,7 +5134,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$35:$P$35</c:f>
+              <c:f>marketshare!$C$35:$Q$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5216,7 +5219,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -5269,7 +5272,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$36:$P$36</c:f>
+              <c:f>marketshare!$C$36:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5354,7 +5357,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -5407,7 +5410,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$37:$P$37</c:f>
+              <c:f>marketshare!$C$37:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5492,7 +5495,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -5545,7 +5548,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$38:$P$38</c:f>
+              <c:f>marketshare!$C$38:$Q$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5631,7 +5634,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -5684,7 +5687,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$39:$P$39</c:f>
+              <c:f>marketshare!$C$39:$Q$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5770,7 +5773,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -5823,7 +5826,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$40:$P$40</c:f>
+              <c:f>marketshare!$C$40:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5909,7 +5912,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -5962,7 +5965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$41:$P$41</c:f>
+              <c:f>marketshare!$C$41:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6048,7 +6051,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -6101,7 +6104,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$42:$P$42</c:f>
+              <c:f>marketshare!$C$42:$Q$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6187,7 +6190,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -6240,7 +6243,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$43:$P$43</c:f>
+              <c:f>marketshare!$C$43:$Q$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6326,7 +6329,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>marketshare!$B$26:$P$26</c:f>
+              <c:f>marketshare!$C$26:$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -6379,7 +6382,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>marketshare!$B$44:$P$44</c:f>
+              <c:f>marketshare!$C$44:$Q$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -7804,13 +7807,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>165099</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>74612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -7842,28 +7845,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C73571A-029D-4F8E-8BA4-E4CA4E7C6015}" name="Table1" displayName="Table1" ref="A4:P23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="18" tableBorderDxfId="19" headerRowCellStyle="Comma 4" dataCellStyle="Comma 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C73571A-029D-4F8E-8BA4-E4CA4E7C6015}" name="Table1" displayName="Table1" ref="A4:P23" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" headerRowCellStyle="Comma 4" dataCellStyle="Comma 4">
   <autoFilter ref="A4:P23" xr:uid="{4C73571A-029D-4F8E-8BA4-E4CA4E7C6015}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:P23">
     <sortCondition descending="1" ref="B4:B23"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{EA2A27BB-E5F3-4B56-A34C-2FC2FDEF01CA}" name="Country or locality3" dataDxfId="17" dataCellStyle="Normal 7"/>
-    <tableColumn id="2" xr3:uid="{ADDB135D-F6DE-4ECB-9A34-C1123B0FA1A8}" name="2007" dataDxfId="16" dataCellStyle="Normal 8"/>
-    <tableColumn id="3" xr3:uid="{FBA26B17-F068-4E4F-AC6A-081A2E1E8EB9}" name="2008" dataDxfId="15" dataCellStyle="Normal 8"/>
-    <tableColumn id="4" xr3:uid="{25FEE87D-56C6-4C42-9099-FB1BE46D2CED}" name="2009" dataDxfId="14" dataCellStyle="Normal 7"/>
-    <tableColumn id="5" xr3:uid="{C495F63B-AEE1-4F5B-97ED-8678AF83669A}" name="2010" dataDxfId="13" dataCellStyle="Normal 8"/>
-    <tableColumn id="6" xr3:uid="{96193D23-6DDB-4233-9931-93EE1FA60E0F}" name="2011" dataDxfId="12" dataCellStyle="Normal 8"/>
-    <tableColumn id="7" xr3:uid="{E24349CC-1630-4E8B-817B-FD3CEE0EEA45}" name="2012" dataDxfId="11" dataCellStyle="Normal 8"/>
-    <tableColumn id="8" xr3:uid="{F85A37F9-D622-48B1-AF76-39B53B640810}" name="2013" dataDxfId="10" dataCellStyle="Normal 8"/>
-    <tableColumn id="9" xr3:uid="{B12C8A7E-D876-427F-ABEC-DAB44F04C90E}" name="2014" dataDxfId="9" dataCellStyle="Normal 8"/>
-    <tableColumn id="10" xr3:uid="{7B158B33-927A-4B02-B376-E1A2EE2B1E3A}" name="2015" dataDxfId="8" dataCellStyle="Normal 8"/>
-    <tableColumn id="11" xr3:uid="{1F5AE594-DBA7-44F3-ACB8-1F9D692D0DE6}" name="2016" dataDxfId="7" dataCellStyle="Normal 8"/>
-    <tableColumn id="12" xr3:uid="{D55C1E08-B60B-44A4-BE20-C0C0A6BAF61F}" name="2017" dataDxfId="6" dataCellStyle="Comma 4"/>
-    <tableColumn id="13" xr3:uid="{B452672F-532E-4C28-80CB-0D50AC728D77}" name="2018" dataDxfId="5" dataCellStyle="Comma 4"/>
-    <tableColumn id="14" xr3:uid="{3C83769E-0367-4655-8243-BE9DDCB46A82}" name="2019" dataDxfId="4" dataCellStyle="Comma 4"/>
-    <tableColumn id="15" xr3:uid="{D3AAECC6-EAD5-4D63-BED8-5F6A6EB87527}" name="2020" dataDxfId="3" dataCellStyle="Comma 4"/>
-    <tableColumn id="16" xr3:uid="{99BE79F9-7FC5-4FD1-ADE9-B0187406B0BA}" name="2021" dataDxfId="2" dataCellStyle="Comma 4"/>
+    <tableColumn id="1" xr3:uid="{EA2A27BB-E5F3-4B56-A34C-2FC2FDEF01CA}" name="Country or locality3" dataDxfId="15" dataCellStyle="Normal 7"/>
+    <tableColumn id="2" xr3:uid="{ADDB135D-F6DE-4ECB-9A34-C1123B0FA1A8}" name="2007" dataDxfId="14" dataCellStyle="Normal 8"/>
+    <tableColumn id="3" xr3:uid="{FBA26B17-F068-4E4F-AC6A-081A2E1E8EB9}" name="2008" dataDxfId="13" dataCellStyle="Normal 8"/>
+    <tableColumn id="4" xr3:uid="{25FEE87D-56C6-4C42-9099-FB1BE46D2CED}" name="2009" dataDxfId="12" dataCellStyle="Normal 7"/>
+    <tableColumn id="5" xr3:uid="{C495F63B-AEE1-4F5B-97ED-8678AF83669A}" name="2010" dataDxfId="11" dataCellStyle="Normal 8"/>
+    <tableColumn id="6" xr3:uid="{96193D23-6DDB-4233-9931-93EE1FA60E0F}" name="2011" dataDxfId="10" dataCellStyle="Normal 8"/>
+    <tableColumn id="7" xr3:uid="{E24349CC-1630-4E8B-817B-FD3CEE0EEA45}" name="2012" dataDxfId="9" dataCellStyle="Normal 8"/>
+    <tableColumn id="8" xr3:uid="{F85A37F9-D622-48B1-AF76-39B53B640810}" name="2013" dataDxfId="8" dataCellStyle="Normal 8"/>
+    <tableColumn id="9" xr3:uid="{B12C8A7E-D876-427F-ABEC-DAB44F04C90E}" name="2014" dataDxfId="7" dataCellStyle="Normal 8"/>
+    <tableColumn id="10" xr3:uid="{7B158B33-927A-4B02-B376-E1A2EE2B1E3A}" name="2015" dataDxfId="6" dataCellStyle="Normal 8"/>
+    <tableColumn id="11" xr3:uid="{1F5AE594-DBA7-44F3-ACB8-1F9D692D0DE6}" name="2016" dataDxfId="5" dataCellStyle="Normal 8"/>
+    <tableColumn id="12" xr3:uid="{D55C1E08-B60B-44A4-BE20-C0C0A6BAF61F}" name="2017" dataDxfId="4" dataCellStyle="Comma 4"/>
+    <tableColumn id="13" xr3:uid="{B452672F-532E-4C28-80CB-0D50AC728D77}" name="2018" dataDxfId="3" dataCellStyle="Comma 4"/>
+    <tableColumn id="14" xr3:uid="{3C83769E-0367-4655-8243-BE9DDCB46A82}" name="2019" dataDxfId="2" dataCellStyle="Comma 4"/>
+    <tableColumn id="15" xr3:uid="{D3AAECC6-EAD5-4D63-BED8-5F6A6EB87527}" name="2020" dataDxfId="1" dataCellStyle="Comma 4"/>
+    <tableColumn id="16" xr3:uid="{99BE79F9-7FC5-4FD1-ADE9-B0187406B0BA}" name="2021" dataDxfId="0" dataCellStyle="Comma 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8169,125 +8172,125 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P25"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="8.7265625" style="8"/>
-    <col min="12" max="12" width="9.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="39.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="8.7265625" style="4"/>
+    <col min="12" max="12" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8295,164 +8298,164 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="5">
         <v>950000</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="5">
         <v>1100000</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="6">
         <v>993000</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="5">
         <v>1140000</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="5">
         <v>1350000</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="5">
         <v>1140000</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="5">
         <v>1450000</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="5">
         <v>1705000</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="5">
         <v>1954000</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="5">
         <v>2101000</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="7">
         <v>2205000</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="7">
         <v>2405000</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="7">
         <v>2210000</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="7">
         <v>2110000</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="7">
         <v>2610000</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="5">
         <f>0.1*B7</f>
         <v>22000</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="5">
         <f t="shared" ref="C6:P6" si="0">0.1*C7</f>
         <v>24800</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>19400</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>24600</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>38000</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>33700</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>52600</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>51400</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
         <v>47100</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="5">
         <f t="shared" si="0"/>
         <v>51800</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="5">
         <f t="shared" si="0"/>
         <v>54100</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="5">
         <f t="shared" si="0"/>
         <v>41900</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="5">
         <f t="shared" si="0"/>
         <v>36100</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="5">
         <f t="shared" si="0"/>
         <v>41100</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="9">
         <v>220000</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="9">
         <v>248000</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="9">
         <v>194000</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="9">
         <v>246000</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="9">
         <v>380000</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="9">
         <v>368000</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="9">
         <v>337000</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="9">
         <v>526000</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="9">
         <v>514000</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="9">
         <v>471000</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="10">
         <v>518000</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="10">
         <v>541000</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="10">
         <v>419000</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="10">
         <v>361000</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="10">
         <v>411000</v>
       </c>
     </row>
@@ -8460,49 +8463,49 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="5">
         <v>145782</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="5">
         <v>155000</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="6">
         <v>150000</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="5">
         <v>175000</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="5">
         <v>175000</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="5">
         <v>150000</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="5">
         <v>150000</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="5">
         <v>150000</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="5">
         <v>150000</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="5">
         <v>150000</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="7">
         <v>150000</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="7">
         <v>150000</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="7">
         <v>150000</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="7">
         <v>143000</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="7">
         <v>150000</v>
       </c>
     </row>
@@ -8510,49 +8513,49 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="5">
         <v>133000</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="5">
         <v>131940</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="6">
         <v>132000</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="5">
         <v>132000</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="5">
         <v>132000</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="5">
         <v>133000</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="5">
         <v>134000</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="5">
         <v>92300</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="5">
         <v>104000</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="5">
         <v>190000</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="7">
         <v>164000</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="7">
         <v>203000</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="7">
         <v>200000</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="7">
         <v>190000</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="7">
         <v>198000</v>
       </c>
     </row>
@@ -8560,49 +8563,49 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="5">
         <v>120000</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="5">
         <v>118000</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="6">
         <v>80300</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="5">
         <v>112000</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="5">
         <v>104000</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="5">
         <v>95200</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="5">
         <v>100000</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="5">
         <v>100000</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="5">
         <v>123000</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="5">
         <v>151000</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="7">
         <v>149000</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="7">
         <v>138000</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="7">
         <v>105000</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="7">
         <v>87000</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="7">
         <v>100000</v>
       </c>
     </row>
@@ -8610,49 +8613,49 @@
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="5">
         <v>54000</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="5">
         <v>54000</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="6">
         <v>23900</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="5">
         <v>48700</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="5">
         <v>57900</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="5">
         <v>52500</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="5">
         <v>55000</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="5">
         <v>60000</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="5">
         <v>60000</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="5">
         <v>59300</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="7">
         <v>59300</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="7">
         <v>59300</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="7">
         <v>59300</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="7">
         <v>56500</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="7">
         <v>60000</v>
       </c>
     </row>
@@ -8660,49 +8663,49 @@
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="5">
         <v>50000</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="5">
         <v>51800</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="6">
         <v>38600</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="5">
         <v>46400</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="5">
         <v>58800</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="5">
         <v>53000</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="5">
         <v>34100</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="5">
         <v>47200</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="5">
         <v>46300</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="5">
         <v>26600</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="7">
         <v>4700</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="7">
         <v>51000</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="7">
         <v>33000</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8710,49 +8713,49 @@
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="5">
         <v>35245</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="5">
         <v>29092</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="6">
         <v>27620</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="5">
         <v>30105</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="5">
         <v>30134</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="5">
         <v>29000</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="5">
         <v>28000</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="5">
         <v>30500</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="5">
         <v>30500</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="5">
         <v>30500</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="7">
         <v>30000</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="7">
         <v>30000</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="7">
         <v>64365</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="7">
         <v>64000</v>
       </c>
     </row>
@@ -8760,49 +8763,49 @@
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="5">
         <v>35000</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="5">
         <v>35000</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="6">
         <v>30000</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="5">
         <v>30000</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="5">
         <v>30000</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="5">
         <v>30000</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="5">
         <v>30000</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="5">
         <v>48000</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="5">
         <v>48000</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="5">
         <v>48000</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="7">
         <v>50000</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="7">
         <v>40000</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="7">
         <v>49000</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="7">
         <v>43000</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="7">
         <v>51000</v>
       </c>
     </row>
@@ -8810,49 +8813,49 @@
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="5">
         <v>32000</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="5">
         <v>33000</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="6">
         <v>22500</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="5">
         <v>31500</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="5">
         <v>34800</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="5">
         <v>27200</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="5">
         <v>29200</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="5">
         <v>29200</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="5">
         <v>24000</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="5">
         <v>30000</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="7">
         <v>7500</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="7">
         <v>7500</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="7">
         <v>7500</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="7">
         <v>5000</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="7">
         <v>5800</v>
       </c>
     </row>
@@ -8860,49 +8863,49 @@
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="5">
         <v>30000</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="5">
         <v>50000</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="6">
         <v>30000</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="5">
         <v>30000</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="5">
         <v>30000</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="5">
         <v>30000</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="5">
         <v>12000</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="5">
         <v>30000</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="5">
         <v>30000</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="5">
         <v>27000</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="7">
         <v>28300</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="7">
         <v>34000</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="7">
         <v>34000</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="7">
         <v>25000</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="7">
         <v>30000</v>
       </c>
     </row>
@@ -8910,49 +8913,49 @@
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="5">
         <v>11600</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="5">
         <v>12400</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="6">
         <v>11000</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="5">
         <v>17400</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="5">
         <v>15468</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="5">
         <v>15874</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="5">
         <v>16707</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="5">
         <v>18383</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="5">
         <v>18716</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="5">
         <v>28138</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="7">
         <v>30473</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="7">
         <v>31460</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="7">
         <v>31911</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="7">
         <v>25000</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="7">
         <v>35000</v>
       </c>
     </row>
@@ -8960,49 +8963,49 @@
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
-        <v>0</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
         <v>1700</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="5">
         <v>6000</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="5">
         <v>5000</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="5">
         <v>5000</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="5">
         <v>3000</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="7">
         <v>3000</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="N18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9010,99 +9013,99 @@
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="12">
-        <v>0</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="14">
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
         <v>7160</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="7">
         <v>7036</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="7">
         <v>28396</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="7">
         <v>27903</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="7">
         <v>28000</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="12">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
         <v>1500</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="5">
         <v>8000</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="5">
         <v>5000</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="5">
         <v>5000</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="5">
         <v>998</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="5">
         <v>866</v>
       </c>
-      <c r="K20" s="12">
-        <v>0</v>
-      </c>
-      <c r="L20" s="14" t="s">
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="7">
         <v>14000</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="7">
         <v>13000</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="7">
         <v>5000</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="7">
         <v>5000</v>
       </c>
     </row>
@@ -9110,99 +9113,99 @@
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
         <v>3020</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="6">
         <v>7350</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="5">
         <v>7792</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="5">
         <v>3001</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="5">
         <v>15301</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="5">
         <v>12472</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="5">
         <v>9503</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="5">
         <v>5673</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="5">
         <v>6836</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="7">
         <v>1886</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="7">
         <v>8873</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="7">
         <v>4600</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="7">
         <v>960</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="7">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="12">
-        <v>0</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
-      <c r="L22" s="14" t="s">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="7">
         <v>800</v>
       </c>
     </row>
@@ -9210,352 +9213,352 @@
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="12">
-        <v>0</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
         <v>22500</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="5">
         <v>20000</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="5">
         <f>SUM(B5:B6,B8:B23)</f>
         <v>1618627</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="5">
         <f t="shared" ref="C25:P25" si="1">SUM(C5:C6,C8:C23)</f>
         <v>1798052</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="5">
         <f t="shared" si="1"/>
         <v>1565670</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>1849497</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="5">
         <f t="shared" si="1"/>
         <v>2087103</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="5">
         <f t="shared" si="1"/>
         <v>1814575</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="5">
         <f t="shared" si="1"/>
         <v>2096179</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="5">
         <f t="shared" si="1"/>
         <v>2378684</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="5">
         <f t="shared" si="1"/>
         <v>2651455</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="5">
         <f t="shared" si="1"/>
         <v>2898474</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="5">
         <f t="shared" si="1"/>
         <v>2942119</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="5">
         <f t="shared" si="1"/>
         <v>3233269</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="5">
         <f t="shared" si="1"/>
         <v>2967607</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="5">
         <f t="shared" si="1"/>
         <v>2818828</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="5">
         <f t="shared" si="1"/>
         <v>3379800</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
     </row>
     <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
     </row>
     <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
     </row>
     <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
     </row>
     <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
     </row>
     <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
     </row>
     <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
     </row>
     <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
     </row>
     <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -9584,194 +9587,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8AA884-F620-4185-A5BF-04232C86887F}">
-  <dimension ref="A2:P46"/>
+  <dimension ref="A2:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B26:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+    <col min="3" max="17" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2006</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>41</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>53</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>54</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>950000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1100000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>993000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1140000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1350000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1140000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1450000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1705000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1954000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2101000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2205000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2405000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2210000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2110000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2610000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
+        <f>29000+38500+28500+52000</f>
+        <v>148000</v>
+      </c>
+      <c r="C5">
         <v>22000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>24800</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>19400</v>
       </c>
-      <c r="E5">
-        <v>24600</v>
-      </c>
-      <c r="F5">
-        <v>38000</v>
-      </c>
-      <c r="G5">
-        <v>36800</v>
-      </c>
-      <c r="H5">
-        <v>33700</v>
-      </c>
-      <c r="I5">
-        <v>52600</v>
-      </c>
-      <c r="J5">
-        <v>51400</v>
-      </c>
-      <c r="K5">
-        <v>47100</v>
-      </c>
-      <c r="L5">
-        <v>51800</v>
-      </c>
-      <c r="M5">
+      <c r="F5" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G5" s="19">
+        <v>41000</v>
+      </c>
+      <c r="H5" s="19">
+        <v>44000</v>
+      </c>
+      <c r="I5" s="19">
+        <v>41000</v>
+      </c>
+      <c r="J5" s="19">
+        <v>46000</v>
+      </c>
+      <c r="K5" s="19">
+        <v>35000</v>
+      </c>
+      <c r="L5" s="19">
+        <v>29500</v>
+      </c>
+      <c r="M5" s="19">
+        <v>30000</v>
+      </c>
+      <c r="N5">
         <v>54100</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>41900</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>36100</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>41100</v>
       </c>
+      <c r="R5" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>145782</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>155000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>150000</v>
-      </c>
-      <c r="E6">
-        <v>175000</v>
       </c>
       <c r="F6">
         <v>175000</v>
       </c>
       <c r="G6">
-        <v>150000</v>
+        <v>175000</v>
       </c>
       <c r="H6">
         <v>150000</v>
@@ -9795,24 +9809,24 @@
         <v>150000</v>
       </c>
       <c r="O6">
+        <v>150000</v>
+      </c>
+      <c r="P6">
         <v>143000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>133000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>131940</v>
-      </c>
-      <c r="D7">
-        <v>132000</v>
       </c>
       <c r="E7">
         <v>132000</v>
@@ -9821,119 +9835,119 @@
         <v>132000</v>
       </c>
       <c r="G7">
+        <v>132000</v>
+      </c>
+      <c r="H7">
         <v>133000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>134000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>92300</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>104000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>190000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>164000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>203000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>200000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>190000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>198000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>120000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>118000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>80300</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>112000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>104000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>95200</v>
-      </c>
-      <c r="H8">
-        <v>100000</v>
       </c>
       <c r="I8">
         <v>100000</v>
       </c>
       <c r="J8">
+        <v>100000</v>
+      </c>
+      <c r="K8">
         <v>123000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>151000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>149000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>138000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>105000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>87000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>54000</v>
-      </c>
       <c r="C9">
         <v>54000</v>
       </c>
       <c r="D9">
+        <v>54000</v>
+      </c>
+      <c r="E9">
         <v>23900</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>48700</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>57900</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>52500</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>55000</v>
-      </c>
-      <c r="I9">
-        <v>60000</v>
       </c>
       <c r="J9">
         <v>60000</v>
       </c>
       <c r="K9">
-        <v>59300</v>
+        <v>60000</v>
       </c>
       <c r="L9">
         <v>59300</v>
@@ -9945,89 +9959,89 @@
         <v>59300</v>
       </c>
       <c r="O9">
+        <v>59300</v>
+      </c>
+      <c r="P9">
         <v>56500</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>50000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>51800</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>38600</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>46400</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>58800</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>53000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>34100</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>47200</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>46300</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>26600</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4700</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>51000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>33000</v>
-      </c>
-      <c r="O10" t="s">
-        <v>40</v>
       </c>
       <c r="P10" t="s">
         <v>40</v>
       </c>
+      <c r="Q10" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>35245</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>29092</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>27620</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>30105</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>30134</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>29000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>28000</v>
-      </c>
-      <c r="I11">
-        <v>30500</v>
       </c>
       <c r="J11">
         <v>30500</v>
@@ -10036,33 +10050,33 @@
         <v>30500</v>
       </c>
       <c r="L11">
-        <v>30000</v>
+        <v>30500</v>
       </c>
       <c r="M11">
         <v>30000</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11">
+        <v>30000</v>
+      </c>
+      <c r="O11" t="s">
         <v>40</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>64365</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>64000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
-      <c r="B12">
-        <v>35000</v>
-      </c>
       <c r="C12">
         <v>35000</v>
       </c>
       <c r="D12">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="E12">
         <v>30000</v>
@@ -10077,7 +10091,7 @@
         <v>30000</v>
       </c>
       <c r="I12">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="J12">
         <v>48000</v>
@@ -10086,57 +10100,57 @@
         <v>48000</v>
       </c>
       <c r="L12">
+        <v>48000</v>
+      </c>
+      <c r="M12">
         <v>50000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>40000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>49000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>43000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>51000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>32000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>33000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>22500</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>31500</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>34800</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>27200</v>
-      </c>
-      <c r="H13">
-        <v>29200</v>
       </c>
       <c r="I13">
         <v>29200</v>
       </c>
       <c r="J13">
+        <v>29200</v>
+      </c>
+      <c r="K13">
         <v>24000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>30000</v>
-      </c>
-      <c r="L13">
-        <v>7500</v>
       </c>
       <c r="M13">
         <v>7500</v>
@@ -10145,24 +10159,24 @@
         <v>7500</v>
       </c>
       <c r="O13">
+        <v>7500</v>
+      </c>
+      <c r="P13">
         <v>5000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>5800</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>30000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>50000</v>
-      </c>
-      <c r="D14">
-        <v>30000</v>
       </c>
       <c r="E14">
         <v>30000</v>
@@ -10174,90 +10188,90 @@
         <v>30000</v>
       </c>
       <c r="H14">
+        <v>30000</v>
+      </c>
+      <c r="I14">
         <v>12000</v>
-      </c>
-      <c r="I14">
-        <v>30000</v>
       </c>
       <c r="J14">
         <v>30000</v>
       </c>
       <c r="K14">
+        <v>30000</v>
+      </c>
+      <c r="L14">
         <v>27000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>28300</v>
-      </c>
-      <c r="M14">
-        <v>34000</v>
       </c>
       <c r="N14">
         <v>34000</v>
       </c>
       <c r="O14">
+        <v>34000</v>
+      </c>
+      <c r="P14">
         <v>25000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>11600</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>12400</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>11000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>17400</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>15468</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>15874</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>16707</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>18383</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>18716</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>28138</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>30473</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>31460</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>31911</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>25000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>35000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
         <v>0</v>
       </c>
@@ -10271,25 +10285,25 @@
         <v>0</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>1700</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>6000</v>
-      </c>
-      <c r="I16">
-        <v>5000</v>
       </c>
       <c r="J16">
         <v>5000</v>
       </c>
       <c r="K16">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L16">
         <v>3000</v>
       </c>
-      <c r="M16" t="s">
-        <v>40</v>
+      <c r="M16">
+        <v>3000</v>
       </c>
       <c r="N16" t="s">
         <v>40</v>
@@ -10300,14 +10314,14 @@
       <c r="P16" t="s">
         <v>40</v>
       </c>
+      <c r="Q16" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
         <v>0</v>
       </c>
@@ -10336,28 +10350,28 @@
         <v>0</v>
       </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>7160</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>7036</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>28396</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>27903</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>28000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>64</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
         <v>0</v>
       </c>
@@ -10365,99 +10379,99 @@
         <v>0</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>1500</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>8000</v>
-      </c>
-      <c r="G18">
-        <v>5000</v>
       </c>
       <c r="H18">
         <v>5000</v>
       </c>
       <c r="I18">
+        <v>5000</v>
+      </c>
+      <c r="J18">
         <v>998</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>866</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>40</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>14000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>13000</v>
-      </c>
-      <c r="O18">
-        <v>5000</v>
       </c>
       <c r="P18">
         <v>5000</v>
       </c>
+      <c r="Q18">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>3020</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>7350</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>7792</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3001</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>15301</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>12472</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>9503</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>5673</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>6836</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1886</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>8873</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>4600</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>960</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>66</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
         <v>0</v>
       </c>
@@ -10485,8 +10499,8 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" t="s">
-        <v>40</v>
+      <c r="L20">
+        <v>0</v>
       </c>
       <c r="M20" t="s">
         <v>40</v>
@@ -10497,17 +10511,17 @@
       <c r="O20" t="s">
         <v>40</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
         <v>0</v>
       </c>
@@ -10515,14 +10529,14 @@
         <v>0</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>22500</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>20000</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
@@ -10550,1343 +10564,1346 @@
       <c r="P21">
         <v>0</v>
       </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>1618627</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1798052</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1565670</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1849497</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2087103</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1814575</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2096179</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2378684</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>2651455</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2898474</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2942119</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>3233269</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2967607</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2818828</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>3379800</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>49</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>47</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>46</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>45</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>44</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>42</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>41</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>39</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>53</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>54</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>55</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>56</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="27">
-        <f>(B4/B$23)*100</f>
+      <c r="C27" s="18">
+        <f>(C4/C$23)*100</f>
         <v>58.691718351417585</v>
       </c>
-      <c r="C27" s="27">
-        <f t="shared" ref="C27:P27" si="0">(C4/C$23)*100</f>
+      <c r="D27" s="18">
+        <f t="shared" ref="D27:Q27" si="0">(D4/D$23)*100</f>
         <v>61.177318564757869</v>
       </c>
-      <c r="D27" s="27">
+      <c r="E27" s="18">
         <f t="shared" si="0"/>
         <v>63.423326754680112</v>
       </c>
-      <c r="E27" s="27">
+      <c r="F27" s="18">
         <f t="shared" si="0"/>
         <v>61.638380597535438</v>
       </c>
-      <c r="F27" s="27">
+      <c r="G27" s="18">
         <f t="shared" si="0"/>
         <v>64.682960064740456</v>
       </c>
-      <c r="G27" s="27">
+      <c r="H27" s="18">
         <f t="shared" si="0"/>
         <v>62.82462835650221</v>
       </c>
-      <c r="H27" s="27">
+      <c r="I27" s="18">
         <f t="shared" si="0"/>
         <v>69.173481844823371</v>
       </c>
-      <c r="I27" s="27">
+      <c r="J27" s="18">
         <f t="shared" si="0"/>
         <v>71.678289339819827</v>
       </c>
-      <c r="J27" s="27">
+      <c r="K27" s="18">
         <f t="shared" si="0"/>
         <v>73.69538611818794</v>
       </c>
-      <c r="K27" s="27">
+      <c r="L27" s="18">
         <f t="shared" si="0"/>
         <v>72.486418715503405</v>
       </c>
-      <c r="L27" s="27">
+      <c r="M27" s="18">
         <f t="shared" si="0"/>
         <v>74.945982810348596</v>
       </c>
-      <c r="M27" s="27">
+      <c r="N27" s="18">
         <f t="shared" si="0"/>
         <v>74.382923289092247</v>
       </c>
-      <c r="N27" s="27">
+      <c r="O27" s="18">
         <f t="shared" si="0"/>
         <v>74.470777296319895</v>
       </c>
-      <c r="O27" s="27">
+      <c r="P27" s="18">
         <f t="shared" si="0"/>
         <v>74.85380448895782</v>
       </c>
-      <c r="P27" s="27">
+      <c r="Q27" s="18">
         <f t="shared" si="0"/>
         <v>77.22350434936979</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="27">
-        <f t="shared" ref="B28:P28" si="1">(B5/B$23)*100</f>
+      <c r="C28" s="18">
+        <f t="shared" ref="C28:Q28" si="1">(C5/C$23)*100</f>
         <v>1.3591766355065127</v>
       </c>
-      <c r="C28" s="27">
+      <c r="D28" s="18">
         <f t="shared" si="1"/>
         <v>1.3792704549145409</v>
       </c>
-      <c r="D28" s="27">
+      <c r="E28" s="18">
         <f t="shared" si="1"/>
         <v>1.2390861420350392</v>
       </c>
-      <c r="E28" s="27">
+      <c r="F28" s="18">
         <f t="shared" si="1"/>
-        <v>1.3300913707889226</v>
-      </c>
-      <c r="F28" s="27">
+        <v>2.1627501964047524</v>
+      </c>
+      <c r="G28" s="18">
         <f t="shared" si="1"/>
-        <v>1.8207055425630649</v>
-      </c>
-      <c r="G28" s="27">
+        <v>1.9644454538180436</v>
+      </c>
+      <c r="H28" s="18">
         <f t="shared" si="1"/>
-        <v>2.028023090806387</v>
-      </c>
-      <c r="H28" s="27">
+        <v>2.4248102172685067</v>
+      </c>
+      <c r="I28" s="18">
         <f t="shared" si="1"/>
-        <v>1.6076871297727915</v>
-      </c>
-      <c r="I28" s="27">
+        <v>1.9559398314743157</v>
+      </c>
+      <c r="J28" s="18">
         <f t="shared" si="1"/>
-        <v>2.2113067561727409</v>
-      </c>
-      <c r="J28" s="27">
+        <v>1.9338424103411804</v>
+      </c>
+      <c r="K28" s="18">
         <f t="shared" si="1"/>
-        <v>1.938558263293173</v>
-      </c>
-      <c r="K28" s="27">
+        <v>1.3200299458221996</v>
+      </c>
+      <c r="L28" s="18">
         <f t="shared" si="1"/>
-        <v>1.6249930135650692</v>
-      </c>
-      <c r="L28" s="27">
+        <v>1.0177769405556165</v>
+      </c>
+      <c r="M28" s="18">
         <f t="shared" si="1"/>
-        <v>1.7606357866558082</v>
-      </c>
-      <c r="M28" s="27">
+        <v>1.0196732355149469</v>
+      </c>
+      <c r="N28" s="18">
         <f t="shared" si="1"/>
         <v>1.6732291683741747</v>
       </c>
-      <c r="N28" s="27">
+      <c r="O28" s="18">
         <f t="shared" si="1"/>
         <v>1.4119120220433501</v>
       </c>
-      <c r="O28" s="27">
+      <c r="P28" s="18">
         <f t="shared" si="1"/>
         <v>1.2806740957589466</v>
       </c>
-      <c r="P28" s="27">
+      <c r="Q28" s="18">
         <f t="shared" si="1"/>
         <v>1.2160482868808804</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="27">
-        <f t="shared" ref="B29:P29" si="2">(B6/B$23)*100</f>
+      <c r="C29" s="18">
+        <f t="shared" ref="C29:Q29" si="2">(C6/C$23)*100</f>
         <v>9.0065221944277454</v>
       </c>
-      <c r="C29" s="27">
+      <c r="D29" s="18">
         <f t="shared" si="2"/>
         <v>8.6204403432158809</v>
       </c>
-      <c r="D29" s="27">
+      <c r="E29" s="18">
         <f t="shared" si="2"/>
         <v>9.5805629538791699</v>
       </c>
-      <c r="E29" s="27">
+      <c r="F29" s="18">
         <f t="shared" si="2"/>
         <v>9.4620321092707904</v>
       </c>
-      <c r="F29" s="27">
+      <c r="G29" s="18">
         <f t="shared" si="2"/>
         <v>8.3848281565404292</v>
       </c>
-      <c r="G29" s="27">
+      <c r="H29" s="18">
         <f t="shared" si="2"/>
         <v>8.2663984679608173</v>
       </c>
-      <c r="H29" s="27">
+      <c r="I29" s="18">
         <f t="shared" si="2"/>
         <v>7.1558774322231065</v>
       </c>
-      <c r="I29" s="27">
+      <c r="J29" s="18">
         <f t="shared" si="2"/>
         <v>6.3060078598081963</v>
       </c>
-      <c r="J29" s="27">
+      <c r="K29" s="18">
         <f t="shared" si="2"/>
         <v>5.6572711963808553</v>
       </c>
-      <c r="K29" s="27">
+      <c r="L29" s="18">
         <f t="shared" si="2"/>
         <v>5.1751369858760157</v>
       </c>
-      <c r="L29" s="27">
+      <c r="M29" s="18">
         <f t="shared" si="2"/>
         <v>5.098366177574734</v>
       </c>
-      <c r="M29" s="27">
+      <c r="N29" s="18">
         <f t="shared" si="2"/>
         <v>4.6392675648082484</v>
       </c>
-      <c r="N29" s="27">
+      <c r="O29" s="18">
         <f t="shared" si="2"/>
         <v>5.0545776445465993</v>
       </c>
-      <c r="O29" s="27">
+      <c r="P29" s="18">
         <f t="shared" si="2"/>
         <v>5.0730303516213118</v>
       </c>
-      <c r="P29" s="27">
+      <c r="Q29" s="18">
         <f t="shared" si="2"/>
         <v>4.4381324338718269</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="27">
-        <f t="shared" ref="B30:P30" si="3">(B7/B$23)*100</f>
+      <c r="C30" s="18">
+        <f t="shared" ref="C30:Q30" si="3">(C7/C$23)*100</f>
         <v>8.2168405691984621</v>
       </c>
-      <c r="C30" s="27">
+      <c r="D30" s="18">
         <f t="shared" si="3"/>
         <v>7.3379412831219568</v>
       </c>
-      <c r="D30" s="27">
+      <c r="E30" s="18">
         <f t="shared" si="3"/>
         <v>8.4308953994136697</v>
       </c>
-      <c r="E30" s="27">
+      <c r="F30" s="18">
         <f t="shared" si="3"/>
         <v>7.1370756481356823</v>
       </c>
-      <c r="F30" s="27">
+      <c r="G30" s="18">
         <f t="shared" si="3"/>
         <v>6.3245560952190667</v>
       </c>
-      <c r="G30" s="27">
+      <c r="H30" s="18">
         <f t="shared" si="3"/>
         <v>7.3295399749252574</v>
       </c>
-      <c r="H30" s="27">
+      <c r="I30" s="18">
         <f t="shared" si="3"/>
         <v>6.3925838394526426</v>
       </c>
-      <c r="I30" s="27">
+      <c r="J30" s="18">
         <f t="shared" si="3"/>
         <v>3.8802968364019765</v>
       </c>
-      <c r="J30" s="27">
+      <c r="K30" s="18">
         <f t="shared" si="3"/>
         <v>3.9223746961573926</v>
       </c>
-      <c r="K30" s="27">
+      <c r="L30" s="18">
         <f t="shared" si="3"/>
         <v>6.555173515442954</v>
       </c>
-      <c r="L30" s="27">
+      <c r="M30" s="18">
         <f t="shared" si="3"/>
         <v>5.5742136874817101</v>
       </c>
-      <c r="M30" s="27">
+      <c r="N30" s="18">
         <f t="shared" si="3"/>
         <v>6.2784754377071623</v>
       </c>
-      <c r="N30" s="27">
+      <c r="O30" s="18">
         <f t="shared" si="3"/>
         <v>6.7394368593954663</v>
       </c>
-      <c r="O30" s="27">
+      <c r="P30" s="18">
         <f t="shared" si="3"/>
         <v>6.7403899776786664</v>
       </c>
-      <c r="P30" s="27">
+      <c r="Q30" s="18">
         <f t="shared" si="3"/>
         <v>5.8583348127108117</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="27">
-        <f t="shared" ref="B31:P31" si="4">(B8/B$23)*100</f>
+      <c r="C31" s="18">
+        <f t="shared" ref="C31:Q31" si="4">(C8/C$23)*100</f>
         <v>7.4136907391264328</v>
       </c>
-      <c r="C31" s="27">
+      <c r="D31" s="18">
         <f t="shared" si="4"/>
         <v>6.5626578096740245</v>
       </c>
-      <c r="D31" s="27">
+      <c r="E31" s="18">
         <f t="shared" si="4"/>
         <v>5.1287947013099817</v>
       </c>
-      <c r="E31" s="27">
+      <c r="F31" s="18">
         <f t="shared" si="4"/>
         <v>6.0557005499333068</v>
       </c>
-      <c r="F31" s="27">
+      <c r="G31" s="18">
         <f t="shared" si="4"/>
         <v>4.9829835901725978</v>
       </c>
-      <c r="G31" s="27">
+      <c r="H31" s="18">
         <f t="shared" si="4"/>
         <v>5.2464075609991321</v>
       </c>
-      <c r="H31" s="27">
+      <c r="I31" s="18">
         <f t="shared" si="4"/>
         <v>4.7705849548154049</v>
       </c>
-      <c r="I31" s="27">
+      <c r="J31" s="18">
         <f t="shared" si="4"/>
         <v>4.2040052398721306</v>
       </c>
-      <c r="J31" s="27">
+      <c r="K31" s="18">
         <f t="shared" si="4"/>
         <v>4.6389623810323011</v>
       </c>
-      <c r="K31" s="27">
+      <c r="L31" s="18">
         <f t="shared" si="4"/>
         <v>5.2096378991151893</v>
       </c>
-      <c r="L31" s="27">
+      <c r="M31" s="18">
         <f t="shared" si="4"/>
         <v>5.0643770697242356</v>
       </c>
-      <c r="M31" s="27">
+      <c r="N31" s="18">
         <f t="shared" si="4"/>
         <v>4.2681261596235887</v>
       </c>
-      <c r="N31" s="27">
+      <c r="O31" s="18">
         <f t="shared" si="4"/>
         <v>3.5382043511826193</v>
       </c>
-      <c r="O31" s="27">
+      <c r="P31" s="18">
         <f t="shared" si="4"/>
         <v>3.0863890950423367</v>
       </c>
-      <c r="P31" s="27">
+      <c r="Q31" s="18">
         <f t="shared" si="4"/>
         <v>2.9587549559145514</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="27">
-        <f t="shared" ref="B32:P32" si="5">(B9/B$23)*100</f>
+      <c r="C32" s="18">
+        <f t="shared" ref="C32:Q32" si="5">(C9/C$23)*100</f>
         <v>3.3361608326068946</v>
       </c>
-      <c r="C32" s="27">
+      <c r="D32" s="18">
         <f t="shared" si="5"/>
         <v>3.0032501840881132</v>
       </c>
-      <c r="D32" s="27">
+      <c r="E32" s="18">
         <f t="shared" si="5"/>
         <v>1.5265030306514145</v>
       </c>
-      <c r="E32" s="27">
+      <c r="F32" s="18">
         <f t="shared" si="5"/>
         <v>2.633148364122786</v>
       </c>
-      <c r="F32" s="27">
+      <c r="G32" s="18">
         <f t="shared" si="5"/>
         <v>2.7741802872210908</v>
       </c>
-      <c r="G32" s="27">
+      <c r="H32" s="18">
         <f t="shared" si="5"/>
         <v>2.8932394637862862</v>
       </c>
-      <c r="H32" s="27">
+      <c r="I32" s="18">
         <f t="shared" si="5"/>
         <v>2.6238217251484728</v>
       </c>
-      <c r="I32" s="27">
+      <c r="J32" s="18">
         <f t="shared" si="5"/>
         <v>2.5224031439232788</v>
       </c>
-      <c r="J32" s="27">
+      <c r="K32" s="18">
         <f t="shared" si="5"/>
         <v>2.2629084785523421</v>
       </c>
-      <c r="K32" s="27">
+      <c r="L32" s="18">
         <f t="shared" si="5"/>
         <v>2.0459041550829853</v>
       </c>
-      <c r="L32" s="27">
+      <c r="M32" s="18">
         <f t="shared" si="5"/>
         <v>2.015554095534545</v>
       </c>
-      <c r="M32" s="27">
+      <c r="N32" s="18">
         <f t="shared" si="5"/>
         <v>1.8340571106208607</v>
       </c>
-      <c r="N32" s="27">
+      <c r="O32" s="18">
         <f t="shared" si="5"/>
         <v>1.9982430288107558</v>
       </c>
-      <c r="O32" s="27">
+      <c r="P32" s="18">
         <f t="shared" si="5"/>
         <v>2.0043791249412877</v>
       </c>
-      <c r="P32" s="27">
+      <c r="Q32" s="18">
         <f t="shared" si="5"/>
         <v>1.7752529735487306</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="27">
-        <f t="shared" ref="B33:P33" si="6">(B10/B$23)*100</f>
+      <c r="C33" s="18">
+        <f t="shared" ref="C33:Q33" si="6">(C10/C$23)*100</f>
         <v>3.0890378079693468</v>
       </c>
-      <c r="C33" s="27">
+      <c r="D33" s="18">
         <f t="shared" si="6"/>
         <v>2.8808955469585973</v>
       </c>
-      <c r="D33" s="27">
+      <c r="E33" s="18">
         <f t="shared" si="6"/>
         <v>2.4653982001315731</v>
       </c>
-      <c r="E33" s="27">
+      <c r="F33" s="18">
         <f t="shared" si="6"/>
         <v>2.5087902278295124</v>
       </c>
-      <c r="F33" s="27">
+      <c r="G33" s="18">
         <f t="shared" si="6"/>
         <v>2.8173022605975842</v>
       </c>
-      <c r="G33" s="27">
+      <c r="H33" s="18">
         <f t="shared" si="6"/>
         <v>2.9207941253461556</v>
       </c>
-      <c r="H33" s="27">
+      <c r="I33" s="18">
         <f t="shared" si="6"/>
         <v>1.6267694695920529</v>
       </c>
-      <c r="I33" s="27">
+      <c r="J33" s="18">
         <f t="shared" si="6"/>
         <v>1.9842904732196458</v>
       </c>
-      <c r="J33" s="27">
+      <c r="K33" s="18">
         <f t="shared" si="6"/>
         <v>1.7462110426162241</v>
       </c>
-      <c r="K33" s="27">
+      <c r="L33" s="18">
         <f t="shared" si="6"/>
         <v>0.91772429216201346</v>
       </c>
-      <c r="L33" s="27">
+      <c r="M33" s="18">
         <f t="shared" si="6"/>
         <v>0.15974880689734169</v>
       </c>
-      <c r="M33" s="27">
+      <c r="N33" s="18">
         <f t="shared" si="6"/>
         <v>1.5773509720348042</v>
       </c>
-      <c r="N33" s="27">
+      <c r="O33" s="18">
         <f t="shared" si="6"/>
         <v>1.1120070818002519</v>
       </c>
-      <c r="O33" s="27">
+      <c r="P33" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P33" s="27">
+      <c r="Q33" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="27">
-        <f t="shared" ref="B34:P34" si="7">(B11/B$23)*100</f>
+      <c r="C34" s="18">
+        <f t="shared" ref="C34:Q34" si="7">(C11/C$23)*100</f>
         <v>2.1774627508375928</v>
       </c>
-      <c r="C34" s="27">
+      <c r="D34" s="18">
         <f t="shared" si="7"/>
         <v>1.6179732288053961</v>
       </c>
-      <c r="D34" s="27">
+      <c r="E34" s="18">
         <f t="shared" si="7"/>
         <v>1.7641009919076178</v>
       </c>
-      <c r="E34" s="27">
+      <c r="F34" s="18">
         <f t="shared" si="7"/>
         <v>1.6277398665691267</v>
       </c>
-      <c r="F34" s="27">
+      <c r="G34" s="18">
         <f t="shared" si="7"/>
         <v>1.4438194952525103</v>
       </c>
-      <c r="G34" s="27">
+      <c r="H34" s="18">
         <f t="shared" si="7"/>
         <v>1.5981703704724248</v>
       </c>
-      <c r="H34" s="27">
+      <c r="I34" s="18">
         <f t="shared" si="7"/>
         <v>1.3357637873483132</v>
       </c>
-      <c r="I34" s="27">
+      <c r="J34" s="18">
         <f t="shared" si="7"/>
         <v>1.2822215981609999</v>
       </c>
-      <c r="J34" s="27">
+      <c r="K34" s="18">
         <f t="shared" si="7"/>
         <v>1.1503118099307739</v>
       </c>
-      <c r="K34" s="27">
+      <c r="L34" s="18">
         <f t="shared" si="7"/>
         <v>1.0522778537947899</v>
       </c>
-      <c r="L34" s="27">
+      <c r="M34" s="18">
         <f t="shared" si="7"/>
         <v>1.0196732355149469</v>
       </c>
-      <c r="M34" s="27">
+      <c r="N34" s="18">
         <f t="shared" si="7"/>
         <v>0.92785351296164975</v>
       </c>
-      <c r="N34" s="27">
+      <c r="O34" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O34" s="27">
+      <c r="P34" s="18">
         <f t="shared" si="7"/>
         <v>2.2833957942804597</v>
       </c>
-      <c r="P34" s="27">
+      <c r="Q34" s="18">
         <f t="shared" si="7"/>
         <v>1.8936031717853126</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="27">
-        <f t="shared" ref="B35:P35" si="8">(B12/B$23)*100</f>
+      <c r="C35" s="18">
+        <f t="shared" ref="C35:Q35" si="8">(C12/C$23)*100</f>
         <v>2.162326465578543</v>
       </c>
-      <c r="C35" s="27">
+      <c r="D35" s="18">
         <f t="shared" si="8"/>
         <v>1.9465510452422956</v>
       </c>
-      <c r="D35" s="27">
+      <c r="E35" s="18">
         <f t="shared" si="8"/>
         <v>1.9161125907758338</v>
       </c>
-      <c r="E35" s="27">
+      <c r="F35" s="18">
         <f t="shared" si="8"/>
         <v>1.622062647303564</v>
       </c>
-      <c r="F35" s="27">
+      <c r="G35" s="18">
         <f t="shared" si="8"/>
         <v>1.4373991125497878</v>
       </c>
-      <c r="G35" s="27">
+      <c r="H35" s="18">
         <f t="shared" si="8"/>
         <v>1.6532796935921634</v>
       </c>
-      <c r="H35" s="27">
+      <c r="I35" s="18">
         <f t="shared" si="8"/>
         <v>1.4311754864446213</v>
       </c>
-      <c r="I35" s="27">
+      <c r="J35" s="18">
         <f t="shared" si="8"/>
         <v>2.0179225151386229</v>
       </c>
-      <c r="J35" s="27">
+      <c r="K35" s="18">
         <f t="shared" si="8"/>
         <v>1.8103267828418736</v>
       </c>
-      <c r="K35" s="27">
+      <c r="L35" s="18">
         <f t="shared" si="8"/>
         <v>1.6560438354803253</v>
       </c>
-      <c r="L35" s="27">
+      <c r="M35" s="18">
         <f t="shared" si="8"/>
         <v>1.6994553925249116</v>
       </c>
-      <c r="M35" s="27">
+      <c r="N35" s="18">
         <f t="shared" si="8"/>
         <v>1.2371380172821995</v>
       </c>
-      <c r="N35" s="27">
+      <c r="O35" s="18">
         <f t="shared" si="8"/>
         <v>1.6511620305518893</v>
       </c>
-      <c r="O35" s="27">
+      <c r="P35" s="18">
         <f t="shared" si="8"/>
         <v>1.5254566791588562</v>
       </c>
-      <c r="P35" s="27">
+      <c r="Q35" s="18">
         <f t="shared" si="8"/>
         <v>1.508965027516421</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="27">
-        <f t="shared" ref="B36:P36" si="9">(B13/B$23)*100</f>
+      <c r="C36" s="18">
+        <f t="shared" ref="C36:Q36" si="9">(C13/C$23)*100</f>
         <v>1.9769841971003819</v>
       </c>
-      <c r="C36" s="27">
+      <c r="D36" s="18">
         <f t="shared" si="9"/>
         <v>1.8353195569427359</v>
       </c>
-      <c r="D36" s="27">
+      <c r="E36" s="18">
         <f t="shared" si="9"/>
         <v>1.4370844430818754</v>
       </c>
-      <c r="E36" s="27">
+      <c r="F36" s="18">
         <f t="shared" si="9"/>
         <v>1.7031657796687423</v>
       </c>
-      <c r="F36" s="27">
+      <c r="G36" s="18">
         <f t="shared" si="9"/>
         <v>1.6673829705577539</v>
       </c>
-      <c r="G36" s="27">
+      <c r="H36" s="18">
         <f t="shared" si="9"/>
         <v>1.4989735888568949</v>
       </c>
-      <c r="H36" s="27">
+      <c r="I36" s="18">
         <f t="shared" si="9"/>
         <v>1.3930108068060982</v>
       </c>
-      <c r="I36" s="27">
+      <c r="J36" s="18">
         <f t="shared" si="9"/>
         <v>1.2275695300426623</v>
       </c>
-      <c r="J36" s="27">
+      <c r="K36" s="18">
         <f t="shared" si="9"/>
         <v>0.90516339142093682</v>
       </c>
-      <c r="K36" s="27">
+      <c r="L36" s="18">
         <f t="shared" si="9"/>
         <v>1.0350273971752033</v>
       </c>
-      <c r="L36" s="27">
+      <c r="M36" s="18">
         <f t="shared" si="9"/>
         <v>0.25491830887873673</v>
       </c>
-      <c r="M36" s="27">
+      <c r="N36" s="18">
         <f t="shared" si="9"/>
         <v>0.23196337824041244</v>
       </c>
-      <c r="N36" s="27">
+      <c r="O36" s="18">
         <f t="shared" si="9"/>
         <v>0.25272888222732998</v>
       </c>
-      <c r="O36" s="27">
+      <c r="P36" s="18">
         <f t="shared" si="9"/>
         <v>0.17737868362312281</v>
       </c>
-      <c r="P36" s="27">
+      <c r="Q36" s="18">
         <f t="shared" si="9"/>
         <v>0.17160778744304397</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="27">
-        <f t="shared" ref="B37:P37" si="10">(B14/B$23)*100</f>
+      <c r="C37" s="18">
+        <f t="shared" ref="C37:Q37" si="10">(C14/C$23)*100</f>
         <v>1.8534226847816082</v>
       </c>
-      <c r="C37" s="27">
+      <c r="D37" s="18">
         <f t="shared" si="10"/>
         <v>2.7807872074889937</v>
       </c>
-      <c r="D37" s="27">
+      <c r="E37" s="18">
         <f t="shared" si="10"/>
         <v>1.9161125907758338</v>
       </c>
-      <c r="E37" s="27">
+      <c r="F37" s="18">
         <f t="shared" si="10"/>
         <v>1.622062647303564</v>
       </c>
-      <c r="F37" s="27">
+      <c r="G37" s="18">
         <f t="shared" si="10"/>
         <v>1.4373991125497878</v>
       </c>
-      <c r="G37" s="27">
+      <c r="H37" s="18">
         <f t="shared" si="10"/>
         <v>1.6532796935921634</v>
       </c>
-      <c r="H37" s="27">
+      <c r="I37" s="18">
         <f t="shared" si="10"/>
         <v>0.57247019457784853</v>
       </c>
-      <c r="I37" s="27">
+      <c r="J37" s="18">
         <f t="shared" si="10"/>
         <v>1.2612015719616394</v>
       </c>
-      <c r="J37" s="27">
+      <c r="K37" s="18">
         <f t="shared" si="10"/>
         <v>1.1314542392761711</v>
       </c>
-      <c r="K37" s="27">
+      <c r="L37" s="18">
         <f t="shared" si="10"/>
         <v>0.93152465745768298</v>
       </c>
-      <c r="L37" s="27">
+      <c r="M37" s="18">
         <f t="shared" si="10"/>
         <v>0.96189175216909983</v>
       </c>
-      <c r="M37" s="27">
+      <c r="N37" s="18">
         <f t="shared" si="10"/>
         <v>1.0515673146898696</v>
       </c>
-      <c r="N37" s="27">
+      <c r="O37" s="18">
         <f t="shared" si="10"/>
         <v>1.1457042660972292</v>
       </c>
-      <c r="O37" s="27">
+      <c r="P37" s="18">
         <f t="shared" si="10"/>
         <v>0.88689341811561406</v>
       </c>
-      <c r="P37" s="27">
+      <c r="Q37" s="18">
         <f t="shared" si="10"/>
         <v>0.88762648677436529</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="27">
-        <f t="shared" ref="B38:P38" si="11">(B15/B$23)*100</f>
+      <c r="C38" s="18">
+        <f t="shared" ref="C38:Q38" si="11">(C15/C$23)*100</f>
         <v>0.71665677144888851</v>
       </c>
-      <c r="C38" s="27">
+      <c r="D38" s="18">
         <f t="shared" si="11"/>
         <v>0.68963522745727046</v>
       </c>
-      <c r="D38" s="27">
+      <c r="E38" s="18">
         <f t="shared" si="11"/>
         <v>0.70257461661780574</v>
       </c>
-      <c r="E38" s="27">
+      <c r="F38" s="18">
         <f t="shared" si="11"/>
         <v>0.94079633543606733</v>
       </c>
-      <c r="F38" s="27">
+      <c r="G38" s="18">
         <f t="shared" si="11"/>
         <v>0.74112298243067065</v>
       </c>
-      <c r="G38" s="27">
+      <c r="H38" s="18">
         <f t="shared" si="11"/>
         <v>0.87480539520273337</v>
       </c>
-      <c r="H38" s="27">
+      <c r="I38" s="18">
         <f t="shared" si="11"/>
         <v>0.79702162840100976</v>
       </c>
-      <c r="I38" s="27">
+      <c r="J38" s="18">
         <f t="shared" si="11"/>
         <v>0.7728222832456938</v>
       </c>
-      <c r="J38" s="27">
+      <c r="K38" s="18">
         <f t="shared" si="11"/>
         <v>0.70587658474309389</v>
       </c>
-      <c r="K38" s="27">
+      <c r="L38" s="18">
         <f t="shared" si="11"/>
         <v>0.97078669672386231</v>
       </c>
-      <c r="L38" s="27">
+      <c r="M38" s="18">
         <f t="shared" si="11"/>
         <v>1.0357500835282325</v>
       </c>
-      <c r="M38" s="27">
+      <c r="N38" s="18">
         <f t="shared" si="11"/>
         <v>0.97300905059244991</v>
       </c>
-      <c r="N38" s="27">
+      <c r="O38" s="18">
         <f t="shared" si="11"/>
         <v>1.0753108481008435</v>
       </c>
-      <c r="O38" s="27">
+      <c r="P38" s="18">
         <f t="shared" si="11"/>
         <v>0.88689341811561406</v>
       </c>
-      <c r="P38" s="27">
+      <c r="Q38" s="18">
         <f t="shared" si="11"/>
         <v>1.0355642345700931</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="27">
-        <f t="shared" ref="B39:P39" si="12">(B16/B$23)*100</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="27">
+      <c r="C39" s="18">
+        <f t="shared" ref="C39:Q39" si="12">(C16/C$23)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D39" s="27">
+      <c r="E39" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E39" s="27">
+      <c r="F39" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F39" s="27">
+      <c r="G39" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G39" s="27">
+      <c r="H39" s="18">
         <f t="shared" si="12"/>
         <v>9.3685849303555932E-2</v>
       </c>
-      <c r="H39" s="27">
+      <c r="I39" s="18">
         <f t="shared" si="12"/>
         <v>0.28623509728892427</v>
       </c>
-      <c r="I39" s="27">
+      <c r="J39" s="18">
         <f t="shared" si="12"/>
         <v>0.21020026199360656</v>
       </c>
-      <c r="J39" s="27">
+      <c r="K39" s="18">
         <f t="shared" si="12"/>
         <v>0.18857570654602851</v>
       </c>
-      <c r="K39" s="27">
+      <c r="L39" s="18">
         <f t="shared" si="12"/>
         <v>0.10350273971752033</v>
       </c>
-      <c r="L39" s="27">
+      <c r="M39" s="18">
         <f t="shared" si="12"/>
         <v>0.1019673235514947</v>
       </c>
-      <c r="M39" s="27">
+      <c r="N39" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N39" s="27">
+      <c r="O39" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O39" s="27">
+      <c r="P39" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P39" s="27">
+      <c r="Q39" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="27">
-        <f t="shared" ref="B40:P40" si="13">(B17/B$23)*100</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="27">
+      <c r="C40" s="18">
+        <f t="shared" ref="C40:Q40" si="13">(C17/C$23)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D40" s="27">
+      <c r="E40" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E40" s="27">
+      <c r="F40" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F40" s="27">
+      <c r="G40" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G40" s="27">
+      <c r="H40" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H40" s="27">
+      <c r="I40" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I40" s="27">
+      <c r="J40" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J40" s="27">
+      <c r="K40" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K40" s="27">
+      <c r="L40" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L40" s="27">
+      <c r="M40" s="18">
         <f t="shared" si="13"/>
         <v>0.2433620122095673</v>
       </c>
-      <c r="M40" s="27">
+      <c r="N40" s="18">
         <f t="shared" si="13"/>
         <v>0.2176125772399389</v>
       </c>
-      <c r="N40" s="27">
+      <c r="O40" s="18">
         <f t="shared" si="13"/>
         <v>0.95686524529696826</v>
       </c>
-      <c r="O40" s="27">
+      <c r="P40" s="18">
         <f t="shared" si="13"/>
         <v>0.98987948182719909</v>
       </c>
-      <c r="P40" s="27">
+      <c r="Q40" s="18">
         <f t="shared" si="13"/>
         <v>0.82845138765607429</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="27">
-        <f t="shared" ref="B41:P41" si="14">(B18/B$23)*100</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="27">
+      <c r="C41" s="18">
+        <f t="shared" ref="C41:Q41" si="14">(C18/C$23)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D41" s="27">
+      <c r="E41" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E41" s="27">
+      <c r="F41" s="18">
         <f t="shared" si="14"/>
         <v>8.1103132365178202E-2</v>
       </c>
-      <c r="F41" s="27">
+      <c r="G41" s="18">
         <f t="shared" si="14"/>
         <v>0.3833064300132768</v>
       </c>
-      <c r="G41" s="27">
+      <c r="H41" s="18">
         <f t="shared" si="14"/>
         <v>0.27554661559869387</v>
       </c>
-      <c r="H41" s="27">
+      <c r="I41" s="18">
         <f t="shared" si="14"/>
         <v>0.23852924774077022</v>
       </c>
-      <c r="I41" s="27">
+      <c r="J41" s="18">
         <f t="shared" si="14"/>
         <v>4.1955972293923866E-2</v>
       </c>
-      <c r="J41" s="27">
+      <c r="K41" s="18">
         <f t="shared" si="14"/>
         <v>3.2661312373772136E-2</v>
       </c>
-      <c r="K41" s="27">
+      <c r="L41" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L41" s="27">
+      <c r="M41" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M41" s="27">
+      <c r="N41" s="18">
         <f t="shared" si="14"/>
         <v>0.43299830604876982</v>
       </c>
-      <c r="N41" s="27">
+      <c r="O41" s="18">
         <f t="shared" si="14"/>
         <v>0.43806339586070525</v>
       </c>
-      <c r="O41" s="27">
+      <c r="P41" s="18">
         <f t="shared" si="14"/>
         <v>0.17737868362312281</v>
       </c>
-      <c r="P41" s="27">
+      <c r="Q41" s="18">
         <f t="shared" si="14"/>
         <v>0.14793774779572755</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="27">
-        <f t="shared" ref="B42:P42" si="15">(B19/B$23)*100</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="27">
+      <c r="C42" s="18">
+        <f t="shared" ref="C42:Q42" si="15">(C19/C$23)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="18">
         <f t="shared" si="15"/>
         <v>0.16795954733233523</v>
       </c>
-      <c r="D42" s="27">
+      <c r="E42" s="18">
         <f t="shared" si="15"/>
         <v>0.46944758474007936</v>
       </c>
-      <c r="E42" s="27">
+      <c r="F42" s="18">
         <f t="shared" si="15"/>
         <v>0.42130373825964573</v>
       </c>
-      <c r="F42" s="27">
+      <c r="G42" s="18">
         <f t="shared" si="15"/>
         <v>0.14378782455873046</v>
       </c>
-      <c r="G42" s="27">
+      <c r="H42" s="18">
         <f t="shared" si="15"/>
         <v>0.84322775305512321</v>
       </c>
-      <c r="H42" s="27">
+      <c r="I42" s="18">
         <f t="shared" si="15"/>
         <v>0.59498735556457727</v>
       </c>
-      <c r="I42" s="27">
+      <c r="J42" s="18">
         <f t="shared" si="15"/>
         <v>0.3995066179450486</v>
       </c>
-      <c r="J42" s="27">
+      <c r="K42" s="18">
         <f t="shared" si="15"/>
         <v>0.21395799664712395</v>
       </c>
-      <c r="K42" s="27">
+      <c r="L42" s="18">
         <f t="shared" si="15"/>
         <v>0.23584824290298964</v>
       </c>
-      <c r="L42" s="27">
+      <c r="M42" s="18">
         <f t="shared" si="15"/>
         <v>6.4103457406039663E-2</v>
       </c>
-      <c r="M42" s="27">
+      <c r="N42" s="18">
         <f t="shared" si="15"/>
         <v>0.27442814068362392</v>
       </c>
-      <c r="N42" s="27">
+      <c r="O42" s="18">
         <f t="shared" si="15"/>
         <v>0.15500704776609572</v>
       </c>
-      <c r="O42" s="27">
+      <c r="P42" s="18">
         <f t="shared" si="15"/>
         <v>3.4056707255639578E-2</v>
       </c>
-      <c r="P42" s="27">
+      <c r="Q42" s="18">
         <f t="shared" si="15"/>
         <v>3.2546304515060062E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="27">
-        <f t="shared" ref="B43:P43" si="16">(B20/B$23)*100</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="27">
+      <c r="C43" s="18">
+        <f t="shared" ref="C43:Q43" si="16">(C20/C$23)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D43" s="27">
+      <c r="E43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E43" s="27">
+      <c r="F43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F43" s="27">
+      <c r="G43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G43" s="27">
+      <c r="H43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H43" s="27">
+      <c r="I43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I43" s="27">
+      <c r="J43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J43" s="27">
+      <c r="K43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K43" s="27">
+      <c r="L43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L43" s="27">
+      <c r="M43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M43" s="27">
+      <c r="N43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N43" s="27">
+      <c r="O43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O43" s="27">
+      <c r="P43" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P43" s="27">
+      <c r="Q43" s="18">
         <f t="shared" si="16"/>
         <v>2.3670039647316409E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="27">
-        <f t="shared" ref="B44:P44" si="17">(B21/B$23)*100</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="27">
+      <c r="C44" s="18">
+        <f t="shared" ref="C44:Q44" si="17">(C21/C$23)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="D44" s="27">
+      <c r="E44" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E44" s="27">
+      <c r="F44" s="18">
         <f t="shared" si="17"/>
         <v>1.2165469854776731</v>
       </c>
-      <c r="F44" s="27">
+      <c r="G44" s="18">
         <f t="shared" si="17"/>
         <v>0.95826607503319194</v>
       </c>
-      <c r="G44" s="27">
+      <c r="H44" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H44" s="27">
+      <c r="I44" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I44" s="27">
+      <c r="J44" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J44" s="27">
+      <c r="K44" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K44" s="27">
+      <c r="L44" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L44" s="27">
+      <c r="M44" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M44" s="27">
+      <c r="N44" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N44" s="27">
+      <c r="O44" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O44" s="27">
+      <c r="P44" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P44" s="27">
+      <c r="Q44" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>58</v>
       </c>
-      <c r="B46">
-        <f>SUM(B27:B44)</f>
+      <c r="C46">
+        <f>SUM(C27:C44)</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="C46">
-        <f t="shared" ref="C46:P46" si="18">SUM(C27:C44)</f>
+      <c r="D46">
+        <f t="shared" ref="D46:Q46" si="18">SUM(D27:D44)</f>
         <v>100.00000000000003</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <f t="shared" si="18"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="E46">
+      <c r="F46">
+        <f t="shared" si="18"/>
+        <v>100.83265882561582</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="18"/>
+        <v>100.14373991125495</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="18"/>
+        <v>100.39678712646212</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="18"/>
+        <v>100.34825270170153</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="18"/>
+        <v>99.722535654168425</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="18"/>
+        <v>99.381471682529039</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="18"/>
+        <v>99.392783926990575</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="18"/>
+        <v>99.259037448859118</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="18"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="18"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="18"/>
-        <v>99.999999999999972</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="18"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="18"/>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="18"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="18"/>
-        <v>100.00000000000003</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="18"/>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="18"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="18"/>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="P46">
+      <c r="Q46">
         <f t="shared" si="18"/>
         <v>100.00000000000001</v>
       </c>
